--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Notch3</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H2">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I2">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J2">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.97368501288477</v>
+        <v>4.533117</v>
       </c>
       <c r="N2">
-        <v>3.97368501288477</v>
+        <v>9.066234</v>
       </c>
       <c r="O2">
-        <v>0.03734494411532919</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P2">
-        <v>0.03734494411532919</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q2">
-        <v>7.900360037531931</v>
+        <v>10.2562792076325</v>
       </c>
       <c r="R2">
-        <v>7.900360037531931</v>
+        <v>41.02511683053</v>
       </c>
       <c r="S2">
-        <v>0.000856553850647077</v>
+        <v>0.0009435193684362314</v>
       </c>
       <c r="T2">
-        <v>0.000856553850647077</v>
+        <v>0.0006062982199346397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H3">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I3">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J3">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.56895760325</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N3">
-        <v>2.56895760325</v>
+        <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02414322670693357</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P3">
-        <v>0.02414322670693357</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q3">
-        <v>5.107523601146251</v>
+        <v>6.152236852690835</v>
       </c>
       <c r="R3">
-        <v>5.107523601146251</v>
+        <v>36.913421116145</v>
       </c>
       <c r="S3">
-        <v>0.0005537556500019149</v>
+        <v>0.0005659708079516002</v>
       </c>
       <c r="T3">
-        <v>0.0005537556500019149</v>
+        <v>0.0005455326698243878</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +658,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H4">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I4">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J4">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.91981537628716</v>
+        <v>0.063204</v>
       </c>
       <c r="N4">
-        <v>7.91981537628716</v>
+        <v>0.189612</v>
       </c>
       <c r="O4">
-        <v>0.07443092788485837</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P4">
-        <v>0.07443092788485837</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q4">
-        <v>15.74593675657915</v>
+        <v>0.14300047209</v>
       </c>
       <c r="R4">
-        <v>15.74593675657915</v>
+        <v>0.8580028325400001</v>
       </c>
       <c r="S4">
-        <v>0.001707168115987107</v>
+        <v>1.315523031120608E-05</v>
       </c>
       <c r="T4">
-        <v>0.001707168115987107</v>
+        <v>1.268017327572252E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +720,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H5">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I5">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J5">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>91.942441171791</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N5">
-        <v>91.942441171791</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O5">
-        <v>0.8640809012928788</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P5">
-        <v>0.8640809012928788</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q5">
-        <v>182.797173311787</v>
+        <v>0.3192110036091667</v>
       </c>
       <c r="R5">
-        <v>182.797173311787</v>
+        <v>1.915266021655</v>
       </c>
       <c r="S5">
-        <v>0.0198187958452241</v>
+        <v>2.936559725276234E-05</v>
       </c>
       <c r="T5">
-        <v>0.0198187958452241</v>
+        <v>2.830515716573339E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +782,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.3773801226547</v>
+        <v>2.2625225</v>
       </c>
       <c r="H6">
-        <v>75.3773801226547</v>
+        <v>4.525045</v>
       </c>
       <c r="I6">
-        <v>0.8695818197747425</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J6">
-        <v>0.8695818197747425</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.97368501288477</v>
+        <v>15.202168</v>
       </c>
       <c r="N6">
-        <v>3.97368501288477</v>
+        <v>45.606504</v>
       </c>
       <c r="O6">
-        <v>0.03734494411532919</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P6">
-        <v>0.03734494411532919</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q6">
-        <v>299.5259657039113</v>
+        <v>34.39524714878</v>
       </c>
       <c r="R6">
-        <v>299.5259657039113</v>
+        <v>206.37148289268</v>
       </c>
       <c r="S6">
-        <v>0.03247448446319402</v>
+        <v>0.003164167161408252</v>
       </c>
       <c r="T6">
-        <v>0.03247448446319402</v>
+        <v>0.003049903873277706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,55 +844,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.3773801226547</v>
+        <v>2.2625225</v>
       </c>
       <c r="H7">
-        <v>75.3773801226547</v>
+        <v>4.525045</v>
       </c>
       <c r="I7">
-        <v>0.8695818197747425</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J7">
-        <v>0.8695818197747425</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.56895760325</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N7">
-        <v>2.56895760325</v>
+        <v>184.652237</v>
       </c>
       <c r="O7">
-        <v>0.02414322670693357</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P7">
-        <v>0.02414322670693357</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q7">
-        <v>193.6412937791592</v>
+        <v>208.8899204439163</v>
       </c>
       <c r="R7">
-        <v>193.6412937791592</v>
+        <v>835.5596817756651</v>
       </c>
       <c r="S7">
-        <v>0.02099451101504946</v>
+        <v>0.01921668490296824</v>
       </c>
       <c r="T7">
-        <v>0.02099451101504946</v>
+        <v>0.01234849250527278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +906,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H8">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I8">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J8">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.91981537628716</v>
+        <v>4.533117</v>
       </c>
       <c r="N8">
-        <v>7.91981537628716</v>
+        <v>9.066234</v>
       </c>
       <c r="O8">
-        <v>0.07443092788485837</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P8">
-        <v>0.07443092788485837</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q8">
-        <v>596.9749341196429</v>
+        <v>370.039815484064</v>
       </c>
       <c r="R8">
-        <v>596.9749341196429</v>
+        <v>2220.238892904384</v>
       </c>
       <c r="S8">
-        <v>0.06472378171763776</v>
+        <v>0.03404155892538119</v>
       </c>
       <c r="T8">
-        <v>0.06472378171763776</v>
+        <v>0.03281226216023411</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +968,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H9">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I9">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J9">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.942441171791</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N9">
-        <v>91.942441171791</v>
+        <v>8.157581</v>
       </c>
       <c r="O9">
-        <v>0.8640809012928788</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P9">
-        <v>0.8640809012928788</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q9">
-        <v>6930.380337610908</v>
+        <v>221.9686636543396</v>
       </c>
       <c r="R9">
-        <v>6930.380337610908</v>
+        <v>1997.717972889056</v>
       </c>
       <c r="S9">
-        <v>0.7513890425788612</v>
+        <v>0.02041985491072846</v>
       </c>
       <c r="T9">
-        <v>0.7513890425788612</v>
+        <v>0.02952369047228924</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,122 +1030,122 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.110779653265204</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H10">
-        <v>0.110779653265204</v>
+        <v>244.890976</v>
       </c>
       <c r="I10">
-        <v>0.001277995763763863</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J10">
-        <v>0.001277995763763863</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.97368501288477</v>
+        <v>0.063204</v>
       </c>
       <c r="N10">
-        <v>3.97368501288477</v>
+        <v>0.189612</v>
       </c>
       <c r="O10">
-        <v>0.03734494411532919</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P10">
-        <v>0.03734494411532919</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q10">
-        <v>0.4402034479125125</v>
+        <v>5.159363082367999</v>
       </c>
       <c r="R10">
-        <v>0.4402034479125125</v>
+        <v>46.434267741312</v>
       </c>
       <c r="S10">
-        <v>4.77266803773889E-05</v>
+        <v>0.0004746320667037256</v>
       </c>
       <c r="T10">
-        <v>4.77266803773889E-05</v>
+        <v>0.0006862384814605835</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.110779653265204</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H11">
-        <v>0.110779653265204</v>
+        <v>244.890976</v>
       </c>
       <c r="I11">
-        <v>0.001277995763763863</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J11">
-        <v>0.001277995763763863</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.56895760325</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N11">
-        <v>2.56895760325</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O11">
-        <v>0.02414322670693357</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P11">
-        <v>0.02414322670693357</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q11">
-        <v>0.2845882325410445</v>
+        <v>11.51692329008711</v>
       </c>
       <c r="R11">
-        <v>0.2845882325410445</v>
+        <v>103.652309610784</v>
       </c>
       <c r="S11">
-        <v>3.085494145505167E-05</v>
+        <v>0.001059491455820055</v>
       </c>
       <c r="T11">
-        <v>3.085494145505167E-05</v>
+        <v>0.001531847211276317</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.110779653265204</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H12">
-        <v>0.110779653265204</v>
+        <v>244.890976</v>
       </c>
       <c r="I12">
-        <v>0.001277995763763863</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J12">
-        <v>0.001277995763763863</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.91981537628716</v>
+        <v>15.202168</v>
       </c>
       <c r="N12">
-        <v>7.91981537628716</v>
+        <v>45.606504</v>
       </c>
       <c r="O12">
-        <v>0.07443092788485837</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P12">
-        <v>0.07443092788485837</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q12">
-        <v>0.8773544013095228</v>
+        <v>1240.957919611989</v>
       </c>
       <c r="R12">
-        <v>0.8773544013095228</v>
+        <v>11168.6212765079</v>
       </c>
       <c r="S12">
-        <v>9.512241052986257E-05</v>
+        <v>0.114161072340631</v>
       </c>
       <c r="T12">
-        <v>9.512241052986257E-05</v>
+        <v>0.1650577919629877</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.110779653265204</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H13">
-        <v>0.110779653265204</v>
+        <v>244.890976</v>
       </c>
       <c r="I13">
-        <v>0.001277995763763863</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J13">
-        <v>0.001277995763763863</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.942441171791</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N13">
-        <v>91.942441171791</v>
+        <v>184.652237</v>
       </c>
       <c r="O13">
-        <v>0.8640809012928788</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P13">
-        <v>0.8640809012928788</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q13">
-        <v>10.18535175336742</v>
+        <v>7536.611089918886</v>
       </c>
       <c r="R13">
-        <v>10.18535175336742</v>
+        <v>45219.66653951332</v>
       </c>
       <c r="S13">
-        <v>0.00110429173140156</v>
+        <v>0.693325366027278</v>
       </c>
       <c r="T13">
-        <v>0.00110429173140156</v>
+        <v>0.6682882450329081</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.64364178800039</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H14">
-        <v>1.64364178800039</v>
+        <v>0.346763</v>
       </c>
       <c r="I14">
-        <v>0.0189616701289094</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J14">
-        <v>0.0189616701289094</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.97368501288477</v>
+        <v>4.533117</v>
       </c>
       <c r="N14">
-        <v>3.97368501288477</v>
+        <v>9.066234</v>
       </c>
       <c r="O14">
-        <v>0.03734494411532919</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P14">
-        <v>0.03734494411532919</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q14">
-        <v>6.531314739528276</v>
+        <v>0.5239724167569999</v>
       </c>
       <c r="R14">
-        <v>6.531314739528276</v>
+        <v>3.143834500542</v>
       </c>
       <c r="S14">
-        <v>0.0007081225112974283</v>
+        <v>4.820248295977209E-05</v>
       </c>
       <c r="T14">
-        <v>0.0007081225112974283</v>
+        <v>4.646181190224527E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.64364178800039</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H15">
-        <v>1.64364178800039</v>
+        <v>0.346763</v>
       </c>
       <c r="I15">
-        <v>0.0189616701289094</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J15">
-        <v>0.0189616701289094</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.56895760325</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N15">
-        <v>2.56895760325</v>
+        <v>8.157581</v>
       </c>
       <c r="O15">
-        <v>0.02414322670693357</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P15">
-        <v>0.02414322670693357</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q15">
-        <v>4.222446068303026</v>
+        <v>0.3143052511447778</v>
       </c>
       <c r="R15">
-        <v>4.222446068303026</v>
+        <v>2.828747260303</v>
       </c>
       <c r="S15">
-        <v>0.0004577959006643499</v>
+        <v>2.891429592084656E-05</v>
       </c>
       <c r="T15">
-        <v>0.0004577959006643499</v>
+        <v>4.180522960242697E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,60 +1402,60 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.64364178800039</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H16">
-        <v>1.64364178800039</v>
+        <v>0.346763</v>
       </c>
       <c r="I16">
-        <v>0.0189616701289094</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J16">
-        <v>0.0189616701289094</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>7.91981537628716</v>
+        <v>0.063204</v>
       </c>
       <c r="N16">
-        <v>7.91981537628716</v>
+        <v>0.189612</v>
       </c>
       <c r="O16">
-        <v>0.07443092788485837</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P16">
-        <v>0.07443092788485837</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q16">
-        <v>13.01733950571361</v>
+        <v>0.007305602883999999</v>
       </c>
       <c r="R16">
-        <v>13.01733950571361</v>
+        <v>0.065750425956</v>
       </c>
       <c r="S16">
-        <v>0.001411334701941329</v>
+        <v>6.720739246283376E-07</v>
       </c>
       <c r="T16">
-        <v>0.001411334701941329</v>
+        <v>9.717063422815394E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -1461,60 +1464,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.64364178800039</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H17">
-        <v>1.64364178800039</v>
+        <v>0.346763</v>
       </c>
       <c r="I17">
-        <v>0.0189616701289094</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J17">
-        <v>0.0189616701289094</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>91.942441171791</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N17">
-        <v>91.942441171791</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O17">
-        <v>0.8640809012928788</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P17">
-        <v>0.8640809012928788</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q17">
-        <v>151.1204384007232</v>
+        <v>0.01630784006855555</v>
       </c>
       <c r="R17">
-        <v>151.1204384007232</v>
+        <v>0.146770560617</v>
       </c>
       <c r="S17">
-        <v>0.01638441701500629</v>
+        <v>1.50022855760324E-06</v>
       </c>
       <c r="T17">
-        <v>0.01638441701500629</v>
+        <v>2.169079249877339E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,122 +1526,122 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.56236089959683</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H18">
-        <v>7.56236089959683</v>
+        <v>0.346763</v>
       </c>
       <c r="I18">
-        <v>0.08724224087072407</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J18">
-        <v>0.08724224087072407</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.97368501288477</v>
+        <v>15.202168</v>
       </c>
       <c r="N18">
-        <v>3.97368501288477</v>
+        <v>45.606504</v>
       </c>
       <c r="O18">
-        <v>0.03734494411532919</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P18">
-        <v>0.03734494411532919</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q18">
-        <v>30.05044016875371</v>
+        <v>1.757183127394667</v>
       </c>
       <c r="R18">
-        <v>30.05044016875371</v>
+        <v>15.814648146552</v>
       </c>
       <c r="S18">
-        <v>0.003258056609813278</v>
+        <v>0.0001616508561265003</v>
       </c>
       <c r="T18">
-        <v>0.003258056609813278</v>
+        <v>0.0002337200661671645</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.56236089959683</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H19">
-        <v>7.56236089959683</v>
+        <v>0.346763</v>
       </c>
       <c r="I19">
-        <v>0.08724224087072407</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J19">
-        <v>0.08724224087072407</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.56895760325</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N19">
-        <v>2.56895760325</v>
+        <v>184.652237</v>
       </c>
       <c r="O19">
-        <v>0.02414322670693357</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P19">
-        <v>0.02414322670693357</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q19">
-        <v>19.42738453153979</v>
+        <v>10.67176060980517</v>
       </c>
       <c r="R19">
-        <v>19.42738453153979</v>
+        <v>64.030563658831</v>
       </c>
       <c r="S19">
-        <v>0.002106309199762797</v>
+        <v>0.0009817412949496228</v>
       </c>
       <c r="T19">
-        <v>0.002106309199762797</v>
+        <v>0.0009462889996908105</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,117 +1650,737 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.56236089959683</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H20">
-        <v>7.56236089959683</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I20">
-        <v>0.08724224087072407</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J20">
-        <v>0.08724224087072407</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.91981537628716</v>
+        <v>4.533117</v>
       </c>
       <c r="N20">
-        <v>7.91981537628716</v>
+        <v>9.066234</v>
       </c>
       <c r="O20">
-        <v>0.07443092788485837</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P20">
-        <v>0.07443092788485837</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q20">
-        <v>59.89250213365978</v>
+        <v>8.699451948334998</v>
       </c>
       <c r="R20">
-        <v>59.89250213365978</v>
+        <v>52.19671169000999</v>
       </c>
       <c r="S20">
-        <v>0.006493520938762307</v>
+        <v>0.0008003001129226366</v>
       </c>
       <c r="T20">
-        <v>0.006493520938762307</v>
+        <v>0.0007713999576119139</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.919088333333333</v>
+      </c>
+      <c r="H21">
+        <v>5.757264999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.02030003162297525</v>
+      </c>
+      <c r="J21">
+        <v>0.02110918401968333</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N21">
+        <v>8.157581</v>
+      </c>
+      <c r="O21">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P21">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q21">
+        <v>5.218372841773888</v>
+      </c>
+      <c r="R21">
+        <v>46.965355575965</v>
+      </c>
+      <c r="S21">
+        <v>0.0004800606290311616</v>
+      </c>
+      <c r="T21">
+        <v>0.0006940872734605962</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.919088333333333</v>
+      </c>
+      <c r="H22">
+        <v>5.757264999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.02030003162297525</v>
+      </c>
+      <c r="J22">
+        <v>0.02110918401968333</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.063204</v>
+      </c>
+      <c r="N22">
+        <v>0.189612</v>
+      </c>
+      <c r="O22">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P22">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q22">
+        <v>0.12129405902</v>
+      </c>
+      <c r="R22">
+        <v>1.09164653118</v>
+      </c>
+      <c r="S22">
+        <v>1.115836373452579E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.61331252604676E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.919088333333333</v>
+      </c>
+      <c r="H23">
+        <v>5.757264999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.02030003162297525</v>
+      </c>
+      <c r="J23">
+        <v>0.02110918401968333</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P23">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q23">
+        <v>0.2707571362927777</v>
+      </c>
+      <c r="R23">
+        <v>2.436814226634999</v>
+      </c>
+      <c r="S23">
+        <v>2.490811697525288E-05</v>
+      </c>
+      <c r="T23">
+        <v>3.601296576493184E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.919088333333333</v>
+      </c>
+      <c r="H24">
+        <v>5.757264999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.02030003162297525</v>
+      </c>
+      <c r="J24">
+        <v>0.02110918401968333</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>15.202168</v>
+      </c>
+      <c r="N24">
+        <v>45.606504</v>
+      </c>
+      <c r="O24">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P24">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q24">
+        <v>29.17430325017333</v>
+      </c>
+      <c r="R24">
+        <v>262.56872925156</v>
+      </c>
+      <c r="S24">
+        <v>0.002683870009767869</v>
+      </c>
+      <c r="T24">
+        <v>0.003880426564373651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.919088333333333</v>
+      </c>
+      <c r="H25">
+        <v>5.757264999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.02030003162297525</v>
+      </c>
+      <c r="J25">
+        <v>0.02110918401968333</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N25">
+        <v>184.652237</v>
+      </c>
+      <c r="O25">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P25">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q25">
+        <v>177.1819768753008</v>
+      </c>
+      <c r="R25">
+        <v>1063.091861251805</v>
+      </c>
+      <c r="S25">
+        <v>0.0162997343905438</v>
+      </c>
+      <c r="T25">
+        <v>0.01571112413321177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>7.56236089959683</v>
-      </c>
-      <c r="H21">
-        <v>7.56236089959683</v>
-      </c>
-      <c r="I21">
-        <v>0.08724224087072407</v>
-      </c>
-      <c r="J21">
-        <v>0.08724224087072407</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>91.942441171791</v>
-      </c>
-      <c r="N21">
-        <v>91.942441171791</v>
-      </c>
-      <c r="O21">
-        <v>0.8640809012928788</v>
-      </c>
-      <c r="P21">
-        <v>0.8640809012928788</v>
-      </c>
-      <c r="Q21">
-        <v>695.3019221310341</v>
-      </c>
-      <c r="R21">
-        <v>695.3019221310341</v>
-      </c>
-      <c r="S21">
-        <v>0.07538435412238569</v>
-      </c>
-      <c r="T21">
-        <v>0.07538435412238569</v>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.608700000000001</v>
+      </c>
+      <c r="H26">
+        <v>17.2174</v>
+      </c>
+      <c r="I26">
+        <v>0.09106244834971487</v>
+      </c>
+      <c r="J26">
+        <v>0.06312811116745468</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.533117</v>
+      </c>
+      <c r="N26">
+        <v>9.066234</v>
+      </c>
+      <c r="O26">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P26">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q26">
+        <v>39.0242443179</v>
+      </c>
+      <c r="R26">
+        <v>156.0969772716</v>
+      </c>
+      <c r="S26">
+        <v>0.003590008579829366</v>
+      </c>
+      <c r="T26">
+        <v>0.002306911637763308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>8.608700000000001</v>
+      </c>
+      <c r="H27">
+        <v>17.2174</v>
+      </c>
+      <c r="I27">
+        <v>0.09106244834971487</v>
+      </c>
+      <c r="J27">
+        <v>0.06312811116745468</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N27">
+        <v>8.157581</v>
+      </c>
+      <c r="O27">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P27">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q27">
+        <v>23.40872251823334</v>
+      </c>
+      <c r="R27">
+        <v>140.4523351094</v>
+      </c>
+      <c r="S27">
+        <v>0.002153469366343513</v>
+      </c>
+      <c r="T27">
+        <v>0.002075704040387314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>8.608700000000001</v>
+      </c>
+      <c r="H28">
+        <v>17.2174</v>
+      </c>
+      <c r="I28">
+        <v>0.09106244834971487</v>
+      </c>
+      <c r="J28">
+        <v>0.06312811116745468</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.063204</v>
+      </c>
+      <c r="N28">
+        <v>0.189612</v>
+      </c>
+      <c r="O28">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P28">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q28">
+        <v>0.5441042748</v>
+      </c>
+      <c r="R28">
+        <v>3.264625648800001</v>
+      </c>
+      <c r="S28">
+        <v>5.005449942711279E-05</v>
+      </c>
+      <c r="T28">
+        <v>4.824694900435797E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>8.608700000000001</v>
+      </c>
+      <c r="H29">
+        <v>17.2174</v>
+      </c>
+      <c r="I29">
+        <v>0.09106244834971487</v>
+      </c>
+      <c r="J29">
+        <v>0.06312811116745468</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P29">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q29">
+        <v>1.214569917766667</v>
+      </c>
+      <c r="R29">
+        <v>7.287419506599999</v>
+      </c>
+      <c r="S29">
+        <v>0.0001117335262168024</v>
+      </c>
+      <c r="T29">
+        <v>0.0001076986445406174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>8.608700000000001</v>
+      </c>
+      <c r="H30">
+        <v>17.2174</v>
+      </c>
+      <c r="I30">
+        <v>0.09106244834971487</v>
+      </c>
+      <c r="J30">
+        <v>0.06312811116745468</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.202168</v>
+      </c>
+      <c r="N30">
+        <v>45.606504</v>
+      </c>
+      <c r="O30">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P30">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q30">
+        <v>130.8709036616</v>
+      </c>
+      <c r="R30">
+        <v>785.2254219696001</v>
+      </c>
+      <c r="S30">
+        <v>0.01203937898624885</v>
+      </c>
+      <c r="T30">
+        <v>0.01160461718011016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.608700000000001</v>
+      </c>
+      <c r="H31">
+        <v>17.2174</v>
+      </c>
+      <c r="I31">
+        <v>0.09106244834971487</v>
+      </c>
+      <c r="J31">
+        <v>0.06312811116745468</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N31">
+        <v>184.652237</v>
+      </c>
+      <c r="O31">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P31">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q31">
+        <v>794.8078563309501</v>
+      </c>
+      <c r="R31">
+        <v>3179.231425323801</v>
+      </c>
+      <c r="S31">
+        <v>0.07311780339164922</v>
+      </c>
+      <c r="T31">
+        <v>0.04698493271564892</v>
       </c>
     </row>
   </sheetData>
